--- a/son/content/intermediate_outcomes/compulsory_school_age_(5_to_16_years)/attainment_at_age_16/2.0/IN13-2.0-attainment-at-age-16--by-ITL2-region-and-FSM--not-FSM-eligible--chart-format.xlsx
+++ b/son/content/intermediate_outcomes/compulsory_school_age_(5_to_16_years)/attainment_at_age_16/2.0/IN13-2.0-attainment-at-age-16--by-ITL2-region-and-FSM--not-FSM-eligible--chart-format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Government Equality Hub\SON23\Code\smc-son\son\content\intermediate_outcomes\compulsory_school_age_(5_to_16_years)\attainment_at_age_16\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DA446-AE53-4B17-B487-6BFFD1C27189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58037D-5B89-497D-99F7-1C3AFEEB2A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" xr2:uid="{9803E635-8E71-42B9-9F63-70E1FAD28722}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IN13-2.0-attainment-at-age-16--'!$A$1:$U$255</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="95">
   <si>
     <t>ind_code</t>
   </si>
@@ -305,6 +318,9 @@
   </si>
   <si>
     <t>West Yorkshire</t>
+  </si>
+  <si>
+    <t>Quintile_number</t>
   </si>
 </sst>
 </file>
@@ -1166,13 +1182,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC5DB49-23AE-421A-8BEC-A4B9D347B47D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U255"/>
+  <dimension ref="A1:V255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:V255"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1236,8 +1254,11 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +1323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1432,7 +1453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1627,7 +1648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1692,7 +1713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1887,7 +1908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1952,7 +1973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2017,7 +2038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2082,7 +2103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2147,7 +2168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -12612,7 +12633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -12677,7 +12698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -12742,7 +12763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -12807,7 +12828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -12872,7 +12893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -12937,7 +12958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -13002,7 +13023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -13067,7 +13088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -13132,7 +13153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -13197,7 +13218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -13262,7 +13283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -13327,7 +13348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -13392,7 +13413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -13457,7 +13478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -13522,7 +13543,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -13586,8 +13607,12 @@
       <c r="U191" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V191" t="str">
+        <f>MID(U191,2,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -13652,7 +13677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -13716,8 +13741,12 @@
       <c r="U193" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V193" t="str">
+        <f>MID(U193,2,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -13782,7 +13811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -13846,8 +13875,12 @@
       <c r="U195" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V195" t="str">
+        <f>MID(U195,2,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -13912,7 +13945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -13976,8 +14009,12 @@
       <c r="U197" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V197" t="str">
+        <f>MID(U197,2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -14042,7 +14079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -14106,8 +14143,12 @@
       <c r="U199" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V199" t="str">
+        <f>MID(U199,2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -14172,7 +14213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -14236,8 +14277,12 @@
       <c r="U201" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V201" t="str">
+        <f>MID(U201,2,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -14302,7 +14347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -14366,8 +14411,12 @@
       <c r="U203" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V203" t="str">
+        <f>MID(U203,2,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -14432,7 +14481,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -14496,8 +14545,12 @@
       <c r="U205" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V205" t="str">
+        <f>MID(U205,2,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -14562,7 +14615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -14626,8 +14679,12 @@
       <c r="U207" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V207" t="str">
+        <f>MID(U207,2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -14692,7 +14749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -14756,8 +14813,12 @@
       <c r="U209" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V209" t="str">
+        <f>MID(U209,2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -14822,7 +14883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -14886,8 +14947,12 @@
       <c r="U211" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V211" t="str">
+        <f>MID(U211,2,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -14952,7 +15017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -15016,8 +15081,12 @@
       <c r="U213" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V213" t="str">
+        <f>MID(U213,2,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -15082,7 +15151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -15146,8 +15215,12 @@
       <c r="U215" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V215" t="str">
+        <f>MID(U215,2,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -15212,7 +15285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -15276,8 +15349,12 @@
       <c r="U217" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V217" t="str">
+        <f>MID(U217,2,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -15342,7 +15419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -15406,8 +15483,12 @@
       <c r="U219" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V219" t="str">
+        <f>MID(U219,2,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -15472,7 +15553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -15536,8 +15617,12 @@
       <c r="U221" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V221" t="str">
+        <f>MID(U221,2,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -15602,7 +15687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -15666,8 +15751,12 @@
       <c r="U223" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V223" t="str">
+        <f>MID(U223,2,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -15732,7 +15821,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -15796,8 +15885,12 @@
       <c r="U225" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V225" t="str">
+        <f>MID(U225,2,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -15862,7 +15955,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -15926,8 +16019,12 @@
       <c r="U227" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V227" t="str">
+        <f>MID(U227,2,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -15992,7 +16089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -16056,8 +16153,12 @@
       <c r="U229" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V229" t="str">
+        <f>MID(U229,2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -16122,7 +16223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -16186,8 +16287,12 @@
       <c r="U231" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V231" t="str">
+        <f>MID(U231,2,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -16252,7 +16357,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -16316,8 +16421,12 @@
       <c r="U233" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V233" t="str">
+        <f>MID(U233,2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -16382,7 +16491,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -16446,8 +16555,12 @@
       <c r="U235" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V235" t="str">
+        <f>MID(U235,2,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -16512,7 +16625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -16576,8 +16689,12 @@
       <c r="U237" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V237" t="str">
+        <f>MID(U237,2,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -16642,7 +16759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -16706,8 +16823,12 @@
       <c r="U239" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V239" t="str">
+        <f>MID(U239,2,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -16772,7 +16893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -16836,8 +16957,12 @@
       <c r="U241" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V241" t="str">
+        <f>MID(U241,2,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -16902,7 +17027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -16966,8 +17091,12 @@
       <c r="U243" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V243" t="str">
+        <f>MID(U243,2,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -17032,7 +17161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>21</v>
       </c>
@@ -17096,8 +17225,12 @@
       <c r="U245" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V245" t="str">
+        <f>MID(U245,2,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>21</v>
       </c>
@@ -17162,7 +17295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -17226,8 +17359,12 @@
       <c r="U247" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V247" t="str">
+        <f>MID(U247,2,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>21</v>
       </c>
@@ -17292,7 +17429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>21</v>
       </c>
@@ -17356,8 +17493,12 @@
       <c r="U249" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V249" t="str">
+        <f>MID(U249,2,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>21</v>
       </c>
@@ -17422,7 +17563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>21</v>
       </c>
@@ -17486,8 +17627,12 @@
       <c r="U251" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V251" t="str">
+        <f>MID(U251,2,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>21</v>
       </c>
@@ -17552,7 +17697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>21</v>
       </c>
@@ -17616,8 +17761,12 @@
       <c r="U253" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V253" t="str">
+        <f>MID(U253,2,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>21</v>
       </c>
@@ -17682,7 +17831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -17745,6 +17894,10 @@
       </c>
       <c r="U255" t="s">
         <v>62</v>
+      </c>
+      <c r="V255" t="str">
+        <f>MID(U255,2,1)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
